--- a/pion_qT/expdata/4003.xlsx
+++ b/pion_qT/expdata/4003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninacao/Desktop/fitpack/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B3109-E4B0-2840-8926-FBBA9A0466FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9B67D-1193-8A46-AF17-A43AB9A3B46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>d2sigma/dpTdm (glue)</t>
+    <t>d2sigma/dpTdm(glue)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:S156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
